--- a/database/industries/kaghaz/chekapa/product/quarterly.xlsx
+++ b/database/industries/kaghaz/chekapa/product/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kaghaz\chekapa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78681A3-8ADA-462B-89D7-F76672A323A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -114,7 +115,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -284,7 +285,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -296,7 +297,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -343,6 +344,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -378,6 +396,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -529,17 +564,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -549,7 +584,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -561,7 +596,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -573,7 +608,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -583,7 +618,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -595,7 +630,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -607,7 +642,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -617,7 +652,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -639,7 +674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -649,7 +684,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -673,7 +708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -695,7 +730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -719,7 +754,7 @@
         <v>14935</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -743,7 +778,7 @@
         <v>6830</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
@@ -767,7 +802,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -791,7 +826,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -815,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>19</v>
       </c>
@@ -837,7 +872,7 @@
         <v>26593</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -847,7 +882,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -857,7 +892,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -867,7 +902,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>20</v>
       </c>
@@ -889,7 +924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -899,7 +934,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>10</v>
       </c>
@@ -923,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>21</v>
       </c>
@@ -947,7 +982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>13</v>
       </c>
@@ -969,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>14</v>
       </c>
@@ -993,7 +1028,7 @@
         <v>7197</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>15</v>
       </c>
@@ -1017,7 +1052,7 @@
         <v>6796</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>16</v>
       </c>
@@ -1041,7 +1076,7 @@
         <v>2639</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>17</v>
       </c>
@@ -1065,7 +1100,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>18</v>
       </c>
@@ -1089,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>19</v>
       </c>
@@ -1111,7 +1146,7 @@
         <v>18783</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1121,7 +1156,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1131,7 +1166,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1141,7 +1176,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>23</v>
       </c>
@@ -1163,7 +1198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1173,7 +1208,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>10</v>
       </c>
@@ -1197,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>21</v>
       </c>
@@ -1221,7 +1256,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>13</v>
       </c>
@@ -1245,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>14</v>
       </c>
@@ -1269,7 +1304,7 @@
         <v>1354801</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>15</v>
       </c>
@@ -1293,7 +1328,7 @@
         <v>1158990</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>16</v>
       </c>
@@ -1317,7 +1352,7 @@
         <v>674510</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>17</v>
       </c>
@@ -1341,7 +1376,7 @@
         <v>634666</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>18</v>
       </c>
@@ -1365,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>19</v>
       </c>
@@ -1387,7 +1422,7 @@
         <v>3822967</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1397,7 +1432,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1407,7 +1442,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1417,7 +1452,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>25</v>
       </c>
@@ -1439,7 +1474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1449,7 +1484,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>10</v>
       </c>
@@ -1473,7 +1508,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>21</v>
       </c>
@@ -1497,7 +1532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>13</v>
       </c>
@@ -1521,7 +1556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>14</v>
       </c>
@@ -1545,7 +1580,7 @@
         <v>188245241</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>15</v>
       </c>
@@ -1569,7 +1604,7 @@
         <v>170540024</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>16</v>
       </c>
@@ -1593,7 +1628,7 @@
         <v>255593028</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>17</v>
       </c>
@@ -1617,7 +1652,7 @@
         <v>295056253</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>18</v>
       </c>
@@ -1641,7 +1676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1651,7 +1686,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1661,7 +1696,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1671,7 +1706,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
         <v>28</v>
       </c>
@@ -1693,7 +1728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1703,7 +1738,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>10</v>
       </c>
@@ -1727,7 +1762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>21</v>
       </c>
@@ -1751,7 +1786,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>13</v>
       </c>
@@ -1775,7 +1810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>14</v>
       </c>
@@ -1799,7 +1834,7 @@
         <v>-1018593</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>15</v>
       </c>
@@ -1823,7 +1858,7 @@
         <v>-783959</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>16</v>
       </c>
@@ -1847,7 +1882,7 @@
         <v>-509015</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>17</v>
       </c>
@@ -1871,7 +1906,7 @@
         <v>-534593</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>18</v>
       </c>
@@ -1895,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="14" t="s">
         <v>19</v>
       </c>
@@ -1917,7 +1952,7 @@
         <v>-2846160</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1927,7 +1962,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1937,7 +1972,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1947,7 +1982,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
         <v>29</v>
       </c>
@@ -1969,7 +2004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -1979,7 +2014,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>10</v>
       </c>
@@ -2003,7 +2038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>21</v>
       </c>
@@ -2027,7 +2062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>13</v>
       </c>
@@ -2051,7 +2086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>14</v>
       </c>
@@ -2075,7 +2110,7 @@
         <v>336208</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>15</v>
       </c>
@@ -2099,7 +2134,7 @@
         <v>375031</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>16</v>
       </c>
@@ -2123,7 +2158,7 @@
         <v>165495</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>17</v>
       </c>
@@ -2147,7 +2182,7 @@
         <v>100073</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>18</v>
       </c>
@@ -2171,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="14" t="s">
         <v>19</v>
       </c>

--- a/database/industries/kaghaz/chekapa/product/quarterly.xlsx
+++ b/database/industries/kaghaz/chekapa/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kaghaz\chekapa\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kaghaz\chekapa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78681A3-8ADA-462B-89D7-F76672A323A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2864054-F093-4882-ADBB-C66267A93759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="35">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,18 @@
     <t>مقدار تولید</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1399/05</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/08</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/11</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/02</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/05</t>
   </si>
   <si>
@@ -50,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/05</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/08</t>
   </si>
   <si>
     <t>سایر</t>
@@ -565,16 +580,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I86"/>
+  <dimension ref="B1:N86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -583,8 +598,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -595,8 +615,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -607,8 +632,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -617,8 +647,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -629,8 +664,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -641,8 +681,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -651,8 +696,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -673,8 +723,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -683,196 +748,321 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
-        <v>12</v>
+      <c r="E10" s="9">
+        <v>3</v>
       </c>
       <c r="F10" s="9">
         <v>0</v>
       </c>
       <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
         <v>18</v>
       </c>
-      <c r="H10" s="9">
+      <c r="L10" s="9">
         <v>-18</v>
       </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>8394</v>
+      </c>
+      <c r="F12" s="9">
+        <v>529</v>
+      </c>
+      <c r="G12" s="9">
+        <v>483</v>
+      </c>
+      <c r="H12" s="9">
+        <v>2363</v>
+      </c>
+      <c r="I12" s="9">
         <v>1304</v>
       </c>
-      <c r="F12" s="9">
+      <c r="J12" s="9">
         <v>3178</v>
       </c>
-      <c r="G12" s="9">
+      <c r="K12" s="9">
         <v>3275</v>
       </c>
-      <c r="H12" s="9">
+      <c r="L12" s="9">
         <v>9719</v>
       </c>
-      <c r="I12" s="9">
+      <c r="M12" s="9">
         <v>14935</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N12" s="9">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>5323</v>
+      </c>
+      <c r="F13" s="11">
+        <v>5884</v>
+      </c>
+      <c r="G13" s="11">
+        <v>5160</v>
+      </c>
+      <c r="H13" s="11">
+        <v>6054</v>
+      </c>
+      <c r="I13" s="11">
         <v>3900</v>
       </c>
-      <c r="F13" s="11">
+      <c r="J13" s="11">
         <v>5339</v>
       </c>
-      <c r="G13" s="11">
+      <c r="K13" s="11">
         <v>5961</v>
       </c>
-      <c r="H13" s="11">
+      <c r="L13" s="11">
         <v>6211</v>
       </c>
-      <c r="I13" s="11">
+      <c r="M13" s="11">
         <v>6830</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N13" s="11">
+        <v>5335</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
+        <v>2678</v>
+      </c>
+      <c r="F14" s="9">
+        <v>9739</v>
+      </c>
+      <c r="G14" s="9">
+        <v>10097</v>
+      </c>
+      <c r="H14" s="9">
+        <v>7473</v>
+      </c>
+      <c r="I14" s="9">
         <v>7833</v>
       </c>
-      <c r="F14" s="9">
+      <c r="J14" s="9">
         <v>7410</v>
       </c>
-      <c r="G14" s="9">
+      <c r="K14" s="9">
         <v>4574</v>
       </c>
-      <c r="H14" s="9">
+      <c r="L14" s="9">
         <v>811</v>
       </c>
-      <c r="I14" s="9">
+      <c r="M14" s="9">
         <v>2670</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N14" s="9">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="11">
+      <c r="E15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="11">
+        <v>2510</v>
+      </c>
+      <c r="I15" s="11">
         <v>434</v>
       </c>
-      <c r="F15" s="11">
+      <c r="J15" s="11">
         <v>1146</v>
       </c>
-      <c r="G15" s="11">
+      <c r="K15" s="11">
         <v>1753</v>
       </c>
-      <c r="H15" s="11">
+      <c r="L15" s="11">
         <v>648</v>
       </c>
-      <c r="I15" s="11">
+      <c r="M15" s="11">
         <v>2158</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N15" s="11">
+        <v>4405</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
-        <v>12</v>
+      <c r="E16" s="9">
+        <v>0</v>
       </c>
       <c r="F16" s="9">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13">
+        <v>16398</v>
+      </c>
+      <c r="F17" s="13">
+        <v>16452</v>
+      </c>
+      <c r="G17" s="13">
+        <v>15940</v>
+      </c>
+      <c r="H17" s="13">
+        <v>18400</v>
+      </c>
+      <c r="I17" s="13">
         <v>13471</v>
       </c>
-      <c r="F17" s="13">
+      <c r="J17" s="13">
         <v>17073</v>
       </c>
-      <c r="G17" s="13">
+      <c r="K17" s="13">
         <v>15581</v>
       </c>
-      <c r="H17" s="13">
+      <c r="L17" s="13">
         <v>17371</v>
       </c>
-      <c r="I17" s="13">
+      <c r="M17" s="13">
         <v>26593</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N17" s="13">
+        <v>11349</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -881,8 +1071,13 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -891,8 +1086,13 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -901,10 +1101,15 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -923,8 +1128,23 @@
       <c r="I21" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -933,220 +1153,360 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
-        <v>12</v>
+      <c r="E23" s="9">
+        <v>507</v>
       </c>
       <c r="F23" s="9">
         <v>0</v>
       </c>
       <c r="G23" s="9">
+        <v>5</v>
+      </c>
+      <c r="H23" s="9">
+        <v>-5</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9">
         <v>18</v>
       </c>
-      <c r="H23" s="9">
+      <c r="L23" s="9">
         <v>-18</v>
       </c>
-      <c r="I23" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M23" s="9">
+        <v>0</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11">
         <v>0</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F24" s="11">
+        <v>0</v>
+      </c>
+      <c r="G24" s="11">
+        <v>0</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="9" t="s">
-        <v>12</v>
+      <c r="E25" s="9">
+        <v>0</v>
       </c>
       <c r="F25" s="9">
         <v>0</v>
       </c>
-      <c r="G25" s="9" t="s">
-        <v>12</v>
+      <c r="G25" s="9">
+        <v>0</v>
       </c>
       <c r="H25" s="9">
         <v>0</v>
       </c>
-      <c r="I25" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9">
+        <v>0</v>
+      </c>
+      <c r="N25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11">
+        <v>4105</v>
+      </c>
+      <c r="F26" s="11">
+        <v>3633</v>
+      </c>
+      <c r="G26" s="11">
+        <v>929</v>
+      </c>
+      <c r="H26" s="11">
+        <v>2907</v>
+      </c>
+      <c r="I26" s="11">
         <v>1044</v>
       </c>
-      <c r="F26" s="11">
+      <c r="J26" s="11">
         <v>6780</v>
       </c>
-      <c r="G26" s="11">
+      <c r="K26" s="11">
         <v>3203</v>
       </c>
-      <c r="H26" s="11">
+      <c r="L26" s="11">
         <v>9678</v>
       </c>
-      <c r="I26" s="11">
+      <c r="M26" s="11">
         <v>7197</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N26" s="11">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9">
+        <v>6179</v>
+      </c>
+      <c r="F27" s="9">
+        <v>6019</v>
+      </c>
+      <c r="G27" s="9">
+        <v>5112</v>
+      </c>
+      <c r="H27" s="9">
+        <v>5403</v>
+      </c>
+      <c r="I27" s="9">
         <v>3208</v>
       </c>
-      <c r="F27" s="9">
+      <c r="J27" s="9">
         <v>6891</v>
       </c>
-      <c r="G27" s="9">
+      <c r="K27" s="9">
         <v>6129</v>
       </c>
-      <c r="H27" s="9">
+      <c r="L27" s="9">
         <v>6167</v>
       </c>
-      <c r="I27" s="9">
+      <c r="M27" s="9">
         <v>6796</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N27" s="9">
+        <v>5309</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11">
+        <v>4181</v>
+      </c>
+      <c r="F28" s="11">
+        <v>9985</v>
+      </c>
+      <c r="G28" s="11">
+        <v>9878</v>
+      </c>
+      <c r="H28" s="11">
+        <v>7560</v>
+      </c>
+      <c r="I28" s="11">
         <v>8076</v>
       </c>
-      <c r="F28" s="11">
+      <c r="J28" s="11">
         <v>8639</v>
       </c>
-      <c r="G28" s="11">
+      <c r="K28" s="11">
         <v>4776</v>
       </c>
-      <c r="H28" s="11">
+      <c r="L28" s="11">
         <v>730</v>
       </c>
-      <c r="I28" s="11">
+      <c r="M28" s="11">
         <v>2639</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N28" s="11">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9">
+      <c r="E29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="9">
+        <v>2413</v>
+      </c>
+      <c r="I29" s="9">
         <v>382</v>
       </c>
-      <c r="F29" s="9">
+      <c r="J29" s="9">
         <v>1163</v>
       </c>
-      <c r="G29" s="9">
+      <c r="K29" s="9">
         <v>1823</v>
       </c>
-      <c r="H29" s="9">
+      <c r="L29" s="9">
         <v>665</v>
       </c>
-      <c r="I29" s="9">
+      <c r="M29" s="9">
         <v>2151</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N29" s="9">
+        <v>4213</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>12</v>
+      <c r="E30" s="11">
+        <v>-2665</v>
       </c>
       <c r="F30" s="11">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G30" s="11">
-        <v>0</v>
-      </c>
-      <c r="H30" s="11">
-        <v>0</v>
-      </c>
-      <c r="I30" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="11">
+        <v>0</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0</v>
+      </c>
+      <c r="L30" s="11">
+        <v>0</v>
+      </c>
+      <c r="M30" s="11">
+        <v>0</v>
+      </c>
+      <c r="N30" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
+        <v>12307</v>
+      </c>
+      <c r="F31" s="15">
+        <v>19937</v>
+      </c>
+      <c r="G31" s="15">
+        <v>16124</v>
+      </c>
+      <c r="H31" s="15">
+        <v>18278</v>
+      </c>
+      <c r="I31" s="15">
         <v>12710</v>
       </c>
-      <c r="F31" s="15">
+      <c r="J31" s="15">
         <v>23473</v>
       </c>
-      <c r="G31" s="15">
+      <c r="K31" s="15">
         <v>15949</v>
       </c>
-      <c r="H31" s="15">
+      <c r="L31" s="15">
         <v>17222</v>
       </c>
-      <c r="I31" s="15">
+      <c r="M31" s="15">
         <v>18783</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N31" s="15">
+        <v>16873</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1155,8 +1515,13 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1165,8 +1530,13 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1175,10 +1545,15 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1197,8 +1572,23 @@
       <c r="I35" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1207,222 +1597,362 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D37" s="9"/>
-      <c r="E37" s="9" t="s">
-        <v>12</v>
+      <c r="E37" s="9">
+        <v>37490</v>
       </c>
       <c r="F37" s="9">
         <v>0</v>
       </c>
       <c r="G37" s="9">
+        <v>561</v>
+      </c>
+      <c r="H37" s="9">
+        <v>-561</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="9">
+        <v>0</v>
+      </c>
+      <c r="K37" s="9">
         <v>27000</v>
       </c>
-      <c r="H37" s="9">
+      <c r="L37" s="9">
         <v>-27000</v>
       </c>
-      <c r="I37" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M37" s="9">
+        <v>0</v>
+      </c>
+      <c r="N37" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
+        <v>7541</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11">
+        <v>-13047</v>
+      </c>
+      <c r="I38" s="11">
         <v>3052</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D39" s="9"/>
-      <c r="E39" s="9" t="s">
-        <v>12</v>
+      <c r="E39" s="9">
+        <v>0</v>
       </c>
       <c r="F39" s="9">
         <v>0</v>
       </c>
-      <c r="G39" s="9" t="s">
-        <v>12</v>
+      <c r="G39" s="9">
+        <v>0</v>
       </c>
       <c r="H39" s="9">
         <v>0</v>
       </c>
-      <c r="I39" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="9">
+        <v>0</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="9">
+        <v>0</v>
+      </c>
+      <c r="M39" s="9">
+        <v>0</v>
+      </c>
+      <c r="N39" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
+        <v>355939</v>
+      </c>
+      <c r="F40" s="11">
+        <v>359855</v>
+      </c>
+      <c r="G40" s="11">
+        <v>114018</v>
+      </c>
+      <c r="H40" s="11">
+        <v>311877</v>
+      </c>
+      <c r="I40" s="11">
         <v>292509</v>
       </c>
-      <c r="F40" s="11">
+      <c r="J40" s="11">
         <v>481011</v>
       </c>
-      <c r="G40" s="11">
+      <c r="K40" s="11">
         <v>545528</v>
       </c>
-      <c r="H40" s="11">
+      <c r="L40" s="11">
         <v>1851072</v>
       </c>
-      <c r="I40" s="11">
+      <c r="M40" s="11">
         <v>1354801</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N40" s="11">
+        <v>2259695</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9">
+        <v>379283</v>
+      </c>
+      <c r="F41" s="9">
+        <v>493081</v>
+      </c>
+      <c r="G41" s="9">
+        <v>589943</v>
+      </c>
+      <c r="H41" s="9">
+        <v>740054</v>
+      </c>
+      <c r="I41" s="9">
         <v>430085</v>
       </c>
-      <c r="F41" s="9">
+      <c r="J41" s="9">
         <v>811865</v>
       </c>
-      <c r="G41" s="9">
+      <c r="K41" s="9">
         <v>862478</v>
       </c>
-      <c r="H41" s="9">
+      <c r="L41" s="9">
         <v>980987</v>
       </c>
-      <c r="I41" s="9">
+      <c r="M41" s="9">
         <v>1158990</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N41" s="9">
+        <v>879871</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
+        <v>457655</v>
+      </c>
+      <c r="F42" s="11">
+        <v>1393610</v>
+      </c>
+      <c r="G42" s="11">
+        <v>1574252</v>
+      </c>
+      <c r="H42" s="11">
+        <v>1467065</v>
+      </c>
+      <c r="I42" s="11">
         <v>1372387</v>
       </c>
-      <c r="F42" s="11">
+      <c r="J42" s="11">
         <v>1491416</v>
       </c>
-      <c r="G42" s="11">
+      <c r="K42" s="11">
         <v>1134987</v>
       </c>
-      <c r="H42" s="11">
+      <c r="L42" s="11">
         <v>152719</v>
       </c>
-      <c r="I42" s="11">
+      <c r="M42" s="11">
         <v>674510</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N42" s="11">
+        <v>268699</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C43" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="9">
+        <v>406096</v>
+      </c>
+      <c r="I43" s="9">
+        <v>79270</v>
+      </c>
+      <c r="J43" s="9">
+        <v>213317</v>
+      </c>
+      <c r="K43" s="9">
+        <v>385551</v>
+      </c>
+      <c r="L43" s="9">
+        <v>164757</v>
+      </c>
+      <c r="M43" s="9">
+        <v>634666</v>
+      </c>
+      <c r="N43" s="9">
+        <v>956932</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11">
+        <v>-188113</v>
+      </c>
+      <c r="F44" s="11">
+        <v>17340</v>
+      </c>
+      <c r="G44" s="11">
+        <v>12400</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" s="11">
+        <v>0</v>
+      </c>
+      <c r="K44" s="11">
+        <v>0</v>
+      </c>
+      <c r="L44" s="11">
+        <v>0</v>
+      </c>
+      <c r="M44" s="11">
+        <v>0</v>
+      </c>
+      <c r="N44" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9">
-        <v>79270</v>
-      </c>
-      <c r="F43" s="9">
-        <v>213317</v>
-      </c>
-      <c r="G43" s="9">
-        <v>385551</v>
-      </c>
-      <c r="H43" s="9">
-        <v>164757</v>
-      </c>
-      <c r="I43" s="9">
-        <v>634666</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="11">
-        <v>0</v>
-      </c>
-      <c r="G44" s="11">
-        <v>0</v>
-      </c>
-      <c r="H44" s="11">
-        <v>0</v>
-      </c>
-      <c r="I44" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="14" t="s">
-        <v>19</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15">
+        <v>1049795</v>
+      </c>
+      <c r="F45" s="15">
+        <v>2263886</v>
+      </c>
+      <c r="G45" s="15">
+        <v>2291174</v>
+      </c>
+      <c r="H45" s="15">
+        <v>2911484</v>
+      </c>
+      <c r="I45" s="15">
         <v>2177303</v>
       </c>
-      <c r="F45" s="15">
+      <c r="J45" s="15">
         <v>2997609</v>
       </c>
-      <c r="G45" s="15">
+      <c r="K45" s="15">
         <v>2955544</v>
       </c>
-      <c r="H45" s="15">
+      <c r="L45" s="15">
         <v>3122535</v>
       </c>
-      <c r="I45" s="15">
+      <c r="M45" s="15">
         <v>3822967</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N45" s="15">
+        <v>4365197</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1431,8 +1961,13 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1441,8 +1976,13 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1451,10 +1991,15 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -1473,8 +2018,23 @@
       <c r="I49" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1483,200 +2043,325 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9">
+        <v>98875000</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" s="9">
+        <v>112200000</v>
+      </c>
+      <c r="H51" s="9">
+        <v>112200000</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" s="9">
+        <v>1500000000</v>
+      </c>
+      <c r="L51" s="9">
+        <v>1500000000</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="9">
-        <v>1500000000</v>
-      </c>
-      <c r="H51" s="9">
-        <v>1500000000</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="C52" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
+        <v>85809988</v>
+      </c>
+      <c r="F54" s="11">
+        <v>99051748</v>
+      </c>
+      <c r="G54" s="11">
+        <v>122731970</v>
+      </c>
+      <c r="H54" s="11">
+        <v>107284830</v>
+      </c>
+      <c r="I54" s="11">
         <v>270683908</v>
       </c>
-      <c r="F54" s="11">
+      <c r="J54" s="11">
         <v>70945575</v>
       </c>
-      <c r="G54" s="11">
+      <c r="K54" s="11">
         <v>170317827</v>
       </c>
-      <c r="H54" s="11">
+      <c r="L54" s="11">
         <v>191265964</v>
       </c>
-      <c r="I54" s="11">
+      <c r="M54" s="11">
         <v>188245241</v>
       </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N54" s="11">
+        <v>358681746</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9">
+        <v>61446674</v>
+      </c>
+      <c r="F55" s="9">
+        <v>81920751</v>
+      </c>
+      <c r="G55" s="9">
+        <v>115403560</v>
+      </c>
+      <c r="H55" s="9">
+        <v>136970942</v>
+      </c>
+      <c r="I55" s="9">
         <v>134066397</v>
       </c>
-      <c r="F55" s="9">
+      <c r="J55" s="9">
         <v>117815266</v>
       </c>
-      <c r="G55" s="9">
+      <c r="K55" s="9">
         <v>140720835</v>
       </c>
-      <c r="H55" s="9">
+      <c r="L55" s="9">
         <v>159070375</v>
       </c>
-      <c r="I55" s="9">
+      <c r="M55" s="9">
         <v>170540024</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N55" s="9">
+        <v>165731965</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
+        <v>111169337</v>
+      </c>
+      <c r="F56" s="11">
+        <v>139570356</v>
+      </c>
+      <c r="G56" s="11">
+        <v>159369508</v>
+      </c>
+      <c r="H56" s="11">
+        <v>194056217</v>
+      </c>
+      <c r="I56" s="11">
         <v>169535785</v>
       </c>
-      <c r="F56" s="11">
+      <c r="J56" s="11">
         <v>178053710</v>
       </c>
-      <c r="G56" s="11">
+      <c r="K56" s="11">
         <v>237643844</v>
       </c>
-      <c r="H56" s="11">
+      <c r="L56" s="11">
         <v>209204110</v>
       </c>
-      <c r="I56" s="11">
+      <c r="M56" s="11">
         <v>255593028</v>
       </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N56" s="11">
+        <v>255660324</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D57" s="9"/>
-      <c r="E57" s="9">
+      <c r="E57" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="9">
+        <v>168295068</v>
+      </c>
+      <c r="I57" s="9">
         <v>207513089</v>
       </c>
-      <c r="F57" s="9">
+      <c r="J57" s="9">
         <v>183419604</v>
       </c>
-      <c r="G57" s="9">
+      <c r="K57" s="9">
         <v>211492595</v>
       </c>
-      <c r="H57" s="9">
+      <c r="L57" s="9">
         <v>247754887</v>
       </c>
-      <c r="I57" s="9">
+      <c r="M57" s="9">
         <v>295056253</v>
       </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N57" s="9">
+        <v>227137906</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="F58" s="11">
+        <v>57800000</v>
+      </c>
+      <c r="G58" s="11">
+        <v>62000000</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M58" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N58" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1685,8 +2370,13 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1695,8 +2385,13 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1705,10 +2400,15 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -1727,8 +2427,23 @@
       <c r="I62" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1737,222 +2452,362 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D64" s="9"/>
-      <c r="E64" s="9" t="s">
-        <v>12</v>
+      <c r="E64" s="9">
+        <v>-1268</v>
       </c>
       <c r="F64" s="9">
-        <v>0</v>
+        <v>-1203</v>
       </c>
       <c r="G64" s="9">
+        <v>-60</v>
+      </c>
+      <c r="H64" s="9">
+        <v>60</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" s="9">
+        <v>0</v>
+      </c>
+      <c r="K64" s="9">
         <v>-25000</v>
       </c>
-      <c r="H64" s="9">
+      <c r="L64" s="9">
         <v>25000</v>
       </c>
-      <c r="I64" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M64" s="9">
+        <v>0</v>
+      </c>
+      <c r="N64" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
         <v>0</v>
       </c>
-      <c r="F65" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I65" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F65" s="11">
+        <v>0</v>
+      </c>
+      <c r="G65" s="11">
+        <v>0</v>
+      </c>
+      <c r="H65" s="11">
+        <v>0</v>
+      </c>
+      <c r="I65" s="11">
+        <v>0</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K65" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L65" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M65" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N65" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D66" s="9"/>
-      <c r="E66" s="9" t="s">
-        <v>12</v>
+      <c r="E66" s="9">
+        <v>0</v>
       </c>
       <c r="F66" s="9">
         <v>0</v>
       </c>
-      <c r="G66" s="9" t="s">
-        <v>12</v>
+      <c r="G66" s="9">
+        <v>0</v>
       </c>
       <c r="H66" s="9">
         <v>0</v>
       </c>
-      <c r="I66" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I66" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66" s="9">
+        <v>0</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L66" s="9">
+        <v>0</v>
+      </c>
+      <c r="M66" s="9">
+        <v>0</v>
+      </c>
+      <c r="N66" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11">
+        <v>-191615</v>
+      </c>
+      <c r="F67" s="11">
+        <v>-207253</v>
+      </c>
+      <c r="G67" s="11">
+        <v>-51341</v>
+      </c>
+      <c r="H67" s="11">
+        <v>-153781</v>
+      </c>
+      <c r="I67" s="11">
         <v>-94394</v>
       </c>
-      <c r="F67" s="11">
+      <c r="J67" s="11">
         <v>-472549</v>
       </c>
-      <c r="G67" s="11">
+      <c r="K67" s="11">
         <v>-322125</v>
       </c>
-      <c r="H67" s="11">
+      <c r="L67" s="11">
         <v>-763451</v>
       </c>
-      <c r="I67" s="11">
+      <c r="M67" s="11">
         <v>-1018593</v>
       </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N67" s="11">
+        <v>-1180739</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9">
+        <v>-263625</v>
+      </c>
+      <c r="F68" s="9">
+        <v>-374445</v>
+      </c>
+      <c r="G68" s="9">
+        <v>-391887</v>
+      </c>
+      <c r="H68" s="9">
+        <v>-556169</v>
+      </c>
+      <c r="I68" s="9">
         <v>-410899</v>
       </c>
-      <c r="F68" s="9">
+      <c r="J68" s="9">
         <v>-690154</v>
       </c>
-      <c r="G68" s="9">
+      <c r="K68" s="9">
         <v>-788692</v>
       </c>
-      <c r="H68" s="9">
+      <c r="L68" s="9">
         <v>-856532</v>
       </c>
-      <c r="I68" s="9">
+      <c r="M68" s="9">
         <v>-783959</v>
       </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N68" s="9">
+        <v>-1207909</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
+        <v>-294411</v>
+      </c>
+      <c r="F69" s="11">
+        <v>-1004995</v>
+      </c>
+      <c r="G69" s="11">
+        <v>-946396</v>
+      </c>
+      <c r="H69" s="11">
+        <v>-790956</v>
+      </c>
+      <c r="I69" s="11">
         <v>-858344</v>
       </c>
-      <c r="F69" s="11">
+      <c r="J69" s="11">
         <v>-1673559</v>
       </c>
-      <c r="G69" s="11">
+      <c r="K69" s="11">
         <v>-669601</v>
       </c>
-      <c r="H69" s="11">
+      <c r="L69" s="11">
         <v>-238582</v>
       </c>
-      <c r="I69" s="11">
+      <c r="M69" s="11">
         <v>-509015</v>
       </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N69" s="11">
+        <v>-400204</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C70" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" s="9">
+        <v>-271237</v>
+      </c>
+      <c r="I70" s="9">
+        <v>-113825</v>
+      </c>
+      <c r="J70" s="9">
+        <v>-48810</v>
+      </c>
+      <c r="K70" s="9">
+        <v>-172530</v>
+      </c>
+      <c r="L70" s="9">
+        <v>-282687</v>
+      </c>
+      <c r="M70" s="9">
+        <v>-534593</v>
+      </c>
+      <c r="N70" s="9">
+        <v>-861569</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11">
+        <v>0</v>
+      </c>
+      <c r="F71" s="11">
+        <v>-17340</v>
+      </c>
+      <c r="G71" s="11">
+        <v>-12400</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" s="11">
+        <v>0</v>
+      </c>
+      <c r="K71" s="11">
+        <v>0</v>
+      </c>
+      <c r="L71" s="11">
+        <v>0</v>
+      </c>
+      <c r="M71" s="11">
+        <v>0</v>
+      </c>
+      <c r="N71" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B72" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9">
-        <v>-113825</v>
-      </c>
-      <c r="F70" s="9">
-        <v>-48810</v>
-      </c>
-      <c r="G70" s="9">
-        <v>-172530</v>
-      </c>
-      <c r="H70" s="9">
-        <v>-282687</v>
-      </c>
-      <c r="I70" s="9">
-        <v>-534593</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B71" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="11">
-        <v>0</v>
-      </c>
-      <c r="G71" s="11">
-        <v>0</v>
-      </c>
-      <c r="H71" s="11">
-        <v>0</v>
-      </c>
-      <c r="I71" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B72" s="14" t="s">
-        <v>19</v>
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15">
+        <v>-750919</v>
+      </c>
+      <c r="F72" s="15">
+        <v>-1605236</v>
+      </c>
+      <c r="G72" s="15">
+        <v>-1402084</v>
+      </c>
+      <c r="H72" s="15">
+        <v>-1772083</v>
+      </c>
+      <c r="I72" s="15">
         <v>-1477462</v>
       </c>
-      <c r="F72" s="15">
+      <c r="J72" s="15">
         <v>-2885072</v>
       </c>
-      <c r="G72" s="15">
+      <c r="K72" s="15">
         <v>-1977948</v>
       </c>
-      <c r="H72" s="15">
+      <c r="L72" s="15">
         <v>-2116252</v>
       </c>
-      <c r="I72" s="15">
+      <c r="M72" s="15">
         <v>-2846160</v>
       </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N72" s="15">
+        <v>-3650421</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1961,8 +2816,13 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1971,8 +2831,13 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1981,10 +2846,15 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+    </row>
+    <row r="76" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -2003,8 +2873,23 @@
       <c r="I76" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M76" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2013,219 +2898,359 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D78" s="9"/>
-      <c r="E78" s="9" t="s">
-        <v>12</v>
+      <c r="E78" s="9">
+        <v>-477</v>
       </c>
       <c r="F78" s="9">
-        <v>0</v>
+        <v>-1203</v>
       </c>
       <c r="G78" s="9">
+        <v>501</v>
+      </c>
+      <c r="H78" s="9">
+        <v>-501</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" s="9">
+        <v>0</v>
+      </c>
+      <c r="K78" s="9">
         <v>2000</v>
       </c>
-      <c r="H78" s="9">
+      <c r="L78" s="9">
         <v>-2000</v>
       </c>
-      <c r="I78" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M78" s="9">
+        <v>0</v>
+      </c>
+      <c r="N78" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
+        <v>0</v>
+      </c>
+      <c r="F79" s="11">
+        <v>0</v>
+      </c>
+      <c r="G79" s="11">
+        <v>0</v>
+      </c>
+      <c r="H79" s="11">
+        <v>-13047</v>
+      </c>
+      <c r="I79" s="11">
         <v>3052</v>
       </c>
-      <c r="F79" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H79" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I79" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K79" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L79" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M79" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N79" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D80" s="9"/>
-      <c r="E80" s="9" t="s">
-        <v>12</v>
+      <c r="E80" s="9">
+        <v>0</v>
       </c>
       <c r="F80" s="9">
         <v>0</v>
       </c>
-      <c r="G80" s="9" t="s">
-        <v>12</v>
+      <c r="G80" s="9">
+        <v>0</v>
       </c>
       <c r="H80" s="9">
         <v>0</v>
       </c>
-      <c r="I80" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I80" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80" s="9">
+        <v>0</v>
+      </c>
+      <c r="K80" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L80" s="9">
+        <v>0</v>
+      </c>
+      <c r="M80" s="9">
+        <v>0</v>
+      </c>
+      <c r="N80" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11">
+        <v>169216</v>
+      </c>
+      <c r="F81" s="11">
+        <v>152602</v>
+      </c>
+      <c r="G81" s="11">
+        <v>62677</v>
+      </c>
+      <c r="H81" s="11">
+        <v>158096</v>
+      </c>
+      <c r="I81" s="11">
         <v>188200</v>
       </c>
-      <c r="F81" s="11">
+      <c r="J81" s="11">
         <v>8462</v>
       </c>
-      <c r="G81" s="11">
+      <c r="K81" s="11">
         <v>223403</v>
       </c>
-      <c r="H81" s="11">
+      <c r="L81" s="11">
         <v>1087621</v>
       </c>
-      <c r="I81" s="11">
+      <c r="M81" s="11">
         <v>336208</v>
       </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N81" s="11">
+        <v>1078956</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9">
+        <v>116054</v>
+      </c>
+      <c r="F82" s="9">
+        <v>118636</v>
+      </c>
+      <c r="G82" s="9">
+        <v>198056</v>
+      </c>
+      <c r="H82" s="9">
+        <v>183885</v>
+      </c>
+      <c r="I82" s="9">
         <v>19186</v>
       </c>
-      <c r="F82" s="9">
+      <c r="J82" s="9">
         <v>121711</v>
       </c>
-      <c r="G82" s="9">
+      <c r="K82" s="9">
         <v>73786</v>
       </c>
-      <c r="H82" s="9">
+      <c r="L82" s="9">
         <v>124455</v>
       </c>
-      <c r="I82" s="9">
+      <c r="M82" s="9">
         <v>375031</v>
       </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N82" s="9">
+        <v>-328038</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11">
+        <v>170388</v>
+      </c>
+      <c r="F83" s="11">
+        <v>388615</v>
+      </c>
+      <c r="G83" s="11">
+        <v>627856</v>
+      </c>
+      <c r="H83" s="11">
+        <v>676109</v>
+      </c>
+      <c r="I83" s="11">
         <v>510827</v>
       </c>
-      <c r="F83" s="11">
+      <c r="J83" s="11">
         <v>-135353</v>
       </c>
-      <c r="G83" s="11">
+      <c r="K83" s="11">
         <v>465386</v>
       </c>
-      <c r="H83" s="11">
+      <c r="L83" s="11">
         <v>-85863</v>
       </c>
-      <c r="I83" s="11">
+      <c r="M83" s="11">
         <v>165495</v>
       </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N83" s="11">
+        <v>-131505</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C84" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="9">
+        <v>134859</v>
+      </c>
+      <c r="I84" s="9">
+        <v>-34555</v>
+      </c>
+      <c r="J84" s="9">
+        <v>164507</v>
+      </c>
+      <c r="K84" s="9">
+        <v>213021</v>
+      </c>
+      <c r="L84" s="9">
+        <v>-117930</v>
+      </c>
+      <c r="M84" s="9">
+        <v>100073</v>
+      </c>
+      <c r="N84" s="9">
+        <v>95363</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B85" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11">
+        <v>0</v>
+      </c>
+      <c r="F85" s="11">
+        <v>0</v>
+      </c>
+      <c r="G85" s="11">
+        <v>0</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J85" s="11">
+        <v>0</v>
+      </c>
+      <c r="K85" s="11">
+        <v>0</v>
+      </c>
+      <c r="L85" s="11">
+        <v>0</v>
+      </c>
+      <c r="M85" s="11">
+        <v>0</v>
+      </c>
+      <c r="N85" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B86" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9">
-        <v>-34555</v>
-      </c>
-      <c r="F84" s="9">
-        <v>164507</v>
-      </c>
-      <c r="G84" s="9">
-        <v>213021</v>
-      </c>
-      <c r="H84" s="9">
-        <v>-117930</v>
-      </c>
-      <c r="I84" s="9">
-        <v>100073</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B85" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" s="11">
-        <v>0</v>
-      </c>
-      <c r="G85" s="11">
-        <v>0</v>
-      </c>
-      <c r="H85" s="11">
-        <v>0</v>
-      </c>
-      <c r="I85" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B86" s="14" t="s">
-        <v>19</v>
       </c>
       <c r="C86" s="15"/>
       <c r="D86" s="15"/>
       <c r="E86" s="15">
+        <v>455181</v>
+      </c>
+      <c r="F86" s="15">
+        <v>658650</v>
+      </c>
+      <c r="G86" s="15">
+        <v>889090</v>
+      </c>
+      <c r="H86" s="15">
+        <v>1139401</v>
+      </c>
+      <c r="I86" s="15">
         <v>686710</v>
       </c>
-      <c r="F86" s="15">
+      <c r="J86" s="15">
         <v>159327</v>
       </c>
-      <c r="G86" s="15">
+      <c r="K86" s="15">
         <v>977596</v>
       </c>
-      <c r="H86" s="15">
+      <c r="L86" s="15">
         <v>1006283</v>
       </c>
-      <c r="I86" s="15">
+      <c r="M86" s="15">
         <v>976807</v>
+      </c>
+      <c r="N86" s="15">
+        <v>714776</v>
       </c>
     </row>
   </sheetData>
